--- a/src/loadFiles/Documents/Refs B.xlsx
+++ b/src/loadFiles/Documents/Refs B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p62956\OneDrive - NRB\Bureau\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D970C2-657B-4683-BD46-9D7F55449EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63CE4B-B312-42A8-BE86-E4349BE98642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1620" windowWidth="17280" windowHeight="10128" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soft" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,21 +776,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="333a5f22597eab63bb00e79402ce7adc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d6ca9f312fcd1c0ab10337cdbdb729">
     <xsd:element name="properties">
@@ -904,24 +889,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB0E3D5-600E-408C-8DD5-D8C45D51B4A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A931640-FF28-4D88-949D-7DAD32A307D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD80CD-89FC-443C-8EC9-5935DB02D750}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -935,4 +918,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB0E3D5-600E-408C-8DD5-D8C45D51B4A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A931640-FF28-4D88-949D-7DAD32A307D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/loadFiles/Documents/Refs B.xlsx
+++ b/src/loadFiles/Documents/Refs B.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p62956\OneDrive - NRB\Bureau\doc\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63CE4B-B312-42A8-BE86-E4349BE98642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1620" windowWidth="17280" windowHeight="10128" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Soft" sheetId="1" r:id="rId1"/>
-    <sheet name="Vendeurs" sheetId="2" r:id="rId2"/>
+    <sheet name="Soft" sheetId="1" r:id="rId4"/>
+    <sheet name="Vendeurs" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Clé</t>
   </si>
@@ -152,18 +147,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -174,7 +176,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -193,48 +198,36 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -524,22 +517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true" style="5"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true" style="5"/>
+    <col min="4" max="4" width="50.7109375" customWidth="true" style="0"/>
+    <col min="5" max="5" width="60.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -556,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -573,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -590,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -607,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -624,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -641,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -658,7 +655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -675,7 +672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -693,27 +690,39 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -721,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -729,7 +738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -737,7 +746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -745,7 +754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -753,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -761,7 +770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -770,24 +779,78 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="333a5f22597eab63bb00e79402ce7adc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d6ca9f312fcd1c0ab10337cdbdb729">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dac29f0e060d0d9828bc78d020c13bcb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b817bc98c5af290a1e56b966b0fd4bba" ns2:_="">
+    <xsd:import namespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -890,12 +953,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -904,35 +961,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD80CD-89FC-443C-8EC9-5935DB02D750}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D8E7FCF-8FF4-4B3D-91FA-D61ABD4DB44D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB0E3D5-600E-408C-8DD5-D8C45D51B4A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F937C033-0086-44E9-A0BC-421D74E0F3D8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A931640-FF28-4D88-949D-7DAD32A307D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3F12CE-0EA8-4CF9-AAB9-D8E7D425E2F5}"/>
 </file>